--- a/data/raw/election/voters-age-sex-education/2023/Mardin.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Mardin.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:52:06-55858091515" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="39">
   <si>
     <t>Mardin</t>
   </si>
@@ -131,6 +130,12 @@
   </si>
   <si>
     <t>Yeşilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -664,7 +669,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -678,16 +683,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1012,11 +1026,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:A266"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1031,52 +1043,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1130,11 +1142,11 @@
       <c r="F6" s="4">
         <v>11</v>
       </c>
-      <c r="G6" s="4">
-        <v>3.633</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6.37</v>
+      <c r="G6" s="5">
+        <v>3633</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6370</v>
       </c>
       <c r="I6" s="4">
         <v>917</v>
@@ -1148,8 +1160,8 @@
       <c r="L6" s="4">
         <v>142</v>
       </c>
-      <c r="M6" s="5">
-        <v>11.356</v>
+      <c r="M6" s="6">
+        <v>11356</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1169,14 +1181,14 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
-        <v>3.7759999999999998</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.3859999999999999</v>
+      <c r="G7" s="5">
+        <v>3776</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6064</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1386</v>
       </c>
       <c r="J7" s="4">
         <v>13</v>
@@ -1187,8 +1199,8 @@
       <c r="L7" s="4">
         <v>59</v>
       </c>
-      <c r="M7" s="5">
-        <v>11.798</v>
+      <c r="M7" s="6">
+        <v>11798</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1210,14 +1222,14 @@
       <c r="F8" s="4">
         <v>121</v>
       </c>
-      <c r="G8" s="4">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2.7309999999999999</v>
+      <c r="G8" s="5">
+        <v>2127</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2684</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2731</v>
       </c>
       <c r="J8" s="4">
         <v>215</v>
@@ -1228,8 +1240,8 @@
       <c r="L8" s="4">
         <v>44</v>
       </c>
-      <c r="M8" s="5">
-        <v>8.09</v>
+      <c r="M8" s="6">
+        <v>8090</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1249,14 +1261,14 @@
       <c r="F9" s="4">
         <v>263</v>
       </c>
-      <c r="G9" s="4">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.968</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3.51</v>
+      <c r="G9" s="5">
+        <v>2094</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1968</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3510</v>
       </c>
       <c r="J9" s="4">
         <v>258</v>
@@ -1267,8 +1279,8 @@
       <c r="L9" s="4">
         <v>55</v>
       </c>
-      <c r="M9" s="5">
-        <v>9.0570000000000004</v>
+      <c r="M9" s="6">
+        <v>9057</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1293,11 +1305,11 @@
       <c r="G10" s="4">
         <v>924</v>
       </c>
-      <c r="H10" s="4">
-        <v>2.3290000000000002</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3.4089999999999998</v>
+      <c r="H10" s="5">
+        <v>2329</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3409</v>
       </c>
       <c r="J10" s="4">
         <v>606</v>
@@ -1308,8 +1320,8 @@
       <c r="L10" s="4">
         <v>51</v>
       </c>
-      <c r="M10" s="5">
-        <v>8.5839999999999996</v>
+      <c r="M10" s="6">
+        <v>8584</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1326,17 +1338,17 @@
       <c r="E11" s="4">
         <v>351</v>
       </c>
-      <c r="F11" s="4">
-        <v>1.474</v>
+      <c r="F11" s="5">
+        <v>1474</v>
       </c>
       <c r="G11" s="4">
         <v>690</v>
       </c>
-      <c r="H11" s="4">
-        <v>1.671</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2.8929999999999998</v>
+      <c r="H11" s="5">
+        <v>1671</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2893</v>
       </c>
       <c r="J11" s="4">
         <v>383</v>
@@ -1347,8 +1359,8 @@
       <c r="L11" s="4">
         <v>101</v>
       </c>
-      <c r="M11" s="5">
-        <v>8.3989999999999991</v>
+      <c r="M11" s="6">
+        <v>8399</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1373,11 +1385,11 @@
       <c r="G12" s="4">
         <v>515</v>
       </c>
-      <c r="H12" s="4">
-        <v>2.101</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2.1829999999999998</v>
+      <c r="H12" s="5">
+        <v>2101</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2183</v>
       </c>
       <c r="J12" s="4">
         <v>506</v>
@@ -1388,8 +1400,8 @@
       <c r="L12" s="4">
         <v>65</v>
       </c>
-      <c r="M12" s="5">
-        <v>6.81</v>
+      <c r="M12" s="6">
+        <v>6810</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1403,8 +1415,8 @@
       <c r="D13" s="4">
         <v>370</v>
       </c>
-      <c r="E13" s="4">
-        <v>1.0860000000000001</v>
+      <c r="E13" s="5">
+        <v>1086</v>
       </c>
       <c r="F13" s="4">
         <v>912</v>
@@ -1412,11 +1424,11 @@
       <c r="G13" s="4">
         <v>567</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.454</v>
+      <c r="H13" s="5">
+        <v>1572</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1454</v>
       </c>
       <c r="J13" s="4">
         <v>256</v>
@@ -1427,8 +1439,8 @@
       <c r="L13" s="4">
         <v>63</v>
       </c>
-      <c r="M13" s="5">
-        <v>6.6079999999999997</v>
+      <c r="M13" s="6">
+        <v>6608</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1453,11 +1465,11 @@
       <c r="G14" s="4">
         <v>795</v>
       </c>
-      <c r="H14" s="4">
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.4039999999999999</v>
+      <c r="H14" s="5">
+        <v>1757</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1404</v>
       </c>
       <c r="J14" s="4">
         <v>387</v>
@@ -1468,8 +1480,8 @@
       <c r="L14" s="4">
         <v>73</v>
       </c>
-      <c r="M14" s="5">
-        <v>5.7839999999999998</v>
+      <c r="M14" s="6">
+        <v>5784</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1483,8 +1495,8 @@
       <c r="D15" s="4">
         <v>360</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.327</v>
+      <c r="E15" s="5">
+        <v>1327</v>
       </c>
       <c r="F15" s="4">
         <v>631</v>
@@ -1492,8 +1504,8 @@
       <c r="G15" s="4">
         <v>731</v>
       </c>
-      <c r="H15" s="4">
-        <v>1.298</v>
+      <c r="H15" s="5">
+        <v>1298</v>
       </c>
       <c r="I15" s="4">
         <v>852</v>
@@ -1507,8 +1519,8 @@
       <c r="L15" s="4">
         <v>96</v>
       </c>
-      <c r="M15" s="5">
-        <v>5.8220000000000001</v>
+      <c r="M15" s="6">
+        <v>5822</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1533,11 +1545,11 @@
       <c r="G16" s="4">
         <v>761</v>
       </c>
-      <c r="H16" s="4">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.014</v>
+      <c r="H16" s="5">
+        <v>1299</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1014</v>
       </c>
       <c r="J16" s="4">
         <v>162</v>
@@ -1548,8 +1560,8 @@
       <c r="L16" s="4">
         <v>67</v>
       </c>
-      <c r="M16" s="5">
-        <v>4.6280000000000001</v>
+      <c r="M16" s="6">
+        <v>4628</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1563,8 +1575,8 @@
       <c r="D17" s="4">
         <v>331</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.1619999999999999</v>
+      <c r="E17" s="5">
+        <v>1162</v>
       </c>
       <c r="F17" s="4">
         <v>494</v>
@@ -1572,8 +1584,8 @@
       <c r="G17" s="4">
         <v>600</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
+      <c r="H17" s="5">
+        <v>1000</v>
       </c>
       <c r="I17" s="4">
         <v>377</v>
@@ -1587,8 +1599,8 @@
       <c r="L17" s="4">
         <v>82</v>
       </c>
-      <c r="M17" s="5">
-        <v>4.46</v>
+      <c r="M17" s="6">
+        <v>4460</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1613,8 +1625,8 @@
       <c r="G18" s="4">
         <v>710</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.07</v>
+      <c r="H18" s="5">
+        <v>1070</v>
       </c>
       <c r="I18" s="4">
         <v>642</v>
@@ -1628,8 +1640,8 @@
       <c r="L18" s="4">
         <v>44</v>
       </c>
-      <c r="M18" s="5">
-        <v>3.8690000000000002</v>
+      <c r="M18" s="6">
+        <v>3869</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1643,8 +1655,8 @@
       <c r="D19" s="4">
         <v>358</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.032</v>
+      <c r="E19" s="5">
+        <v>1032</v>
       </c>
       <c r="F19" s="4">
         <v>430</v>
@@ -1667,8 +1679,8 @@
       <c r="L19" s="4">
         <v>70</v>
       </c>
-      <c r="M19" s="5">
-        <v>3.806</v>
+      <c r="M19" s="6">
+        <v>3806</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1708,8 +1720,8 @@
       <c r="L20" s="4">
         <v>38</v>
       </c>
-      <c r="M20" s="5">
-        <v>3.085</v>
+      <c r="M20" s="6">
+        <v>3085</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1747,8 +1759,8 @@
       <c r="L21" s="4">
         <v>67</v>
       </c>
-      <c r="M21" s="5">
-        <v>2.81</v>
+      <c r="M21" s="6">
+        <v>2810</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1788,8 +1800,8 @@
       <c r="L22" s="4">
         <v>44</v>
       </c>
-      <c r="M22" s="5">
-        <v>2.2069999999999999</v>
+      <c r="M22" s="6">
+        <v>2207</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1827,8 +1839,8 @@
       <c r="L23" s="4">
         <v>47</v>
       </c>
-      <c r="M23" s="5">
-        <v>2.2090000000000001</v>
+      <c r="M23" s="6">
+        <v>2209</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1868,8 +1880,8 @@
       <c r="L24" s="4">
         <v>41</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.671</v>
+      <c r="M24" s="6">
+        <v>1671</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1907,8 +1919,8 @@
       <c r="L25" s="4">
         <v>51</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.6779999999999999</v>
+      <c r="M25" s="6">
+        <v>1678</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1948,8 +1960,8 @@
       <c r="L26" s="4">
         <v>26</v>
       </c>
-      <c r="M26" s="5">
-        <v>1.085</v>
+      <c r="M26" s="6">
+        <v>1085</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1987,8 +1999,8 @@
       <c r="L27" s="4">
         <v>41</v>
       </c>
-      <c r="M27" s="5">
-        <v>1.2529999999999999</v>
+      <c r="M27" s="6">
+        <v>1253</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2028,8 +2040,8 @@
       <c r="L28" s="4">
         <v>42</v>
       </c>
-      <c r="M28" s="5">
-        <v>1.359</v>
+      <c r="M28" s="6">
+        <v>1359</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2037,8 +2049,8 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.3979999999999999</v>
+      <c r="C29" s="5">
+        <v>1398</v>
       </c>
       <c r="D29" s="4">
         <v>222</v>
@@ -2067,54 +2079,54 @@
       <c r="L29" s="4">
         <v>85</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.99</v>
+      <c r="M29" s="6">
+        <v>1990</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>6.2220000000000004</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4.8230000000000004</v>
-      </c>
-      <c r="E30" s="5">
-        <v>12.867000000000001</v>
-      </c>
-      <c r="F30" s="5">
-        <v>9.6329999999999991</v>
-      </c>
-      <c r="G30" s="5">
-        <v>20.253</v>
-      </c>
-      <c r="H30" s="5">
-        <v>35.101999999999997</v>
-      </c>
-      <c r="I30" s="5">
-        <v>24.425999999999998</v>
-      </c>
-      <c r="J30" s="5">
-        <v>3.2290000000000001</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>6222</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4823</v>
+      </c>
+      <c r="E30" s="6">
+        <v>12867</v>
+      </c>
+      <c r="F30" s="6">
+        <v>9633</v>
+      </c>
+      <c r="G30" s="6">
+        <v>20253</v>
+      </c>
+      <c r="H30" s="6">
+        <v>35102</v>
+      </c>
+      <c r="I30" s="6">
+        <v>24426</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3229</v>
+      </c>
+      <c r="K30" s="8">
         <v>369</v>
       </c>
-      <c r="L30" s="5">
-        <v>1.494</v>
-      </c>
-      <c r="M30" s="5">
-        <v>118.41800000000001</v>
+      <c r="L30" s="6">
+        <v>1494</v>
+      </c>
+      <c r="M30" s="6">
+        <v>118418</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2171,8 +2183,8 @@
       <c r="G32" s="4">
         <v>593</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.335</v>
+      <c r="H32" s="5">
+        <v>1335</v>
       </c>
       <c r="I32" s="4">
         <v>139</v>
@@ -2186,8 +2198,8 @@
       <c r="L32" s="4">
         <v>18</v>
       </c>
-      <c r="M32" s="5">
-        <v>2.1080000000000001</v>
+      <c r="M32" s="6">
+        <v>2108</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2210,8 +2222,8 @@
       <c r="G33" s="4">
         <v>501</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.292</v>
+      <c r="H33" s="5">
+        <v>1292</v>
       </c>
       <c r="I33" s="4">
         <v>235</v>
@@ -2225,8 +2237,8 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.0659999999999998</v>
+      <c r="M33" s="6">
+        <v>2066</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2266,8 +2278,8 @@
       <c r="L34" s="4">
         <v>8</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.2949999999999999</v>
+      <c r="M34" s="6">
+        <v>1295</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2305,8 +2317,8 @@
       <c r="L35" s="4">
         <v>8</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.2589999999999999</v>
+      <c r="M35" s="6">
+        <v>1259</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2346,8 +2358,8 @@
       <c r="L36" s="4">
         <v>12</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.081</v>
+      <c r="M36" s="6">
+        <v>1081</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2385,7 +2397,7 @@
       <c r="L37" s="4">
         <v>17</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="8">
         <v>977</v>
       </c>
     </row>
@@ -2426,7 +2438,7 @@
       <c r="L38" s="4">
         <v>11</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="8">
         <v>678</v>
       </c>
     </row>
@@ -2465,7 +2477,7 @@
       <c r="L39" s="4">
         <v>5</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="8">
         <v>701</v>
       </c>
     </row>
@@ -2506,7 +2518,7 @@
       <c r="L40" s="4">
         <v>8</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="8">
         <v>719</v>
       </c>
     </row>
@@ -2545,7 +2557,7 @@
       <c r="L41" s="4">
         <v>12</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="8">
         <v>808</v>
       </c>
     </row>
@@ -2586,7 +2598,7 @@
       <c r="L42" s="4">
         <v>14</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="8">
         <v>567</v>
       </c>
     </row>
@@ -2625,7 +2637,7 @@
       <c r="L43" s="4">
         <v>19</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="8">
         <v>718</v>
       </c>
     </row>
@@ -2666,7 +2678,7 @@
       <c r="L44" s="4">
         <v>13</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="8">
         <v>370</v>
       </c>
     </row>
@@ -2705,7 +2717,7 @@
       <c r="L45" s="4">
         <v>17</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="8">
         <v>489</v>
       </c>
     </row>
@@ -2746,7 +2758,7 @@
       <c r="L46" s="4">
         <v>5</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="8">
         <v>372</v>
       </c>
     </row>
@@ -2785,7 +2797,7 @@
       <c r="L47" s="4">
         <v>6</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="8">
         <v>395</v>
       </c>
     </row>
@@ -2826,7 +2838,7 @@
       <c r="L48" s="4">
         <v>5</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="8">
         <v>292</v>
       </c>
     </row>
@@ -2865,7 +2877,7 @@
       <c r="L49" s="4">
         <v>12</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="8">
         <v>282</v>
       </c>
     </row>
@@ -2906,7 +2918,7 @@
       <c r="L50" s="4">
         <v>6</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="8">
         <v>294</v>
       </c>
     </row>
@@ -2945,7 +2957,7 @@
       <c r="L51" s="4">
         <v>8</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>352</v>
       </c>
     </row>
@@ -2986,7 +2998,7 @@
       <c r="L52" s="4">
         <v>7</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>289</v>
       </c>
     </row>
@@ -3025,7 +3037,7 @@
       <c r="L53" s="4">
         <v>3</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>377</v>
       </c>
     </row>
@@ -3066,7 +3078,7 @@
       <c r="L54" s="4">
         <v>8</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>377</v>
       </c>
     </row>
@@ -3105,7 +3117,7 @@
       <c r="L55" s="4">
         <v>25</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="8">
         <v>518</v>
       </c>
     </row>
@@ -3113,46 +3125,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>2.2650000000000001</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1.788</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1.167</v>
-      </c>
-      <c r="G56" s="5">
-        <v>2.5950000000000002</v>
-      </c>
-      <c r="H56" s="5">
-        <v>5.4589999999999996</v>
-      </c>
-      <c r="I56" s="5">
-        <v>2.395</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>2265</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1267</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1788</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1167</v>
+      </c>
+      <c r="G56" s="6">
+        <v>2595</v>
+      </c>
+      <c r="H56" s="6">
+        <v>5459</v>
+      </c>
+      <c r="I56" s="6">
+        <v>2395</v>
+      </c>
+      <c r="J56" s="8">
         <v>198</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>1</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>249</v>
       </c>
-      <c r="M56" s="5">
-        <v>17.384</v>
+      <c r="M56" s="6">
+        <v>17384</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3206,11 +3218,11 @@
       <c r="F58" s="4">
         <v>4</v>
       </c>
-      <c r="G58" s="4">
-        <v>2.1669999999999998</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1.831</v>
+      <c r="G58" s="5">
+        <v>2167</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1831</v>
       </c>
       <c r="I58" s="4">
         <v>247</v>
@@ -3224,8 +3236,8 @@
       <c r="L58" s="4">
         <v>45</v>
       </c>
-      <c r="M58" s="5">
-        <v>4.46</v>
+      <c r="M58" s="6">
+        <v>4460</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3245,11 +3257,11 @@
       <c r="F59" s="4">
         <v>2</v>
       </c>
-      <c r="G59" s="4">
-        <v>2.1240000000000001</v>
-      </c>
-      <c r="H59" s="4">
-        <v>1.694</v>
+      <c r="G59" s="5">
+        <v>2124</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1694</v>
       </c>
       <c r="I59" s="4">
         <v>327</v>
@@ -3263,8 +3275,8 @@
       <c r="L59" s="4">
         <v>5</v>
       </c>
-      <c r="M59" s="5">
-        <v>4.4409999999999998</v>
+      <c r="M59" s="6">
+        <v>4441</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3286,8 +3298,8 @@
       <c r="F60" s="4">
         <v>61</v>
       </c>
-      <c r="G60" s="4">
-        <v>1.2230000000000001</v>
+      <c r="G60" s="5">
+        <v>1223</v>
       </c>
       <c r="H60" s="4">
         <v>718</v>
@@ -3304,8 +3316,8 @@
       <c r="L60" s="4">
         <v>7</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.84</v>
+      <c r="M60" s="6">
+        <v>2840</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3343,8 +3355,8 @@
       <c r="L61" s="4">
         <v>9</v>
       </c>
-      <c r="M61" s="5">
-        <v>2.69</v>
+      <c r="M61" s="6">
+        <v>2690</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3384,8 +3396,8 @@
       <c r="L62" s="4">
         <v>11</v>
       </c>
-      <c r="M62" s="5">
-        <v>2.1859999999999999</v>
+      <c r="M62" s="6">
+        <v>2186</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3423,8 +3435,8 @@
       <c r="L63" s="4">
         <v>18</v>
       </c>
-      <c r="M63" s="5">
-        <v>2.0430000000000001</v>
+      <c r="M63" s="6">
+        <v>2043</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3464,8 +3476,8 @@
       <c r="L64" s="4">
         <v>15</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.7929999999999999</v>
+      <c r="M64" s="6">
+        <v>1793</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3503,8 +3515,8 @@
       <c r="L65" s="4">
         <v>17</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.9079999999999999</v>
+      <c r="M65" s="6">
+        <v>1908</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3544,8 +3556,8 @@
       <c r="L66" s="4">
         <v>8</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.6910000000000001</v>
+      <c r="M66" s="6">
+        <v>1691</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3583,8 +3595,8 @@
       <c r="L67" s="4">
         <v>24</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.659</v>
+      <c r="M67" s="6">
+        <v>1659</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,8 +3636,8 @@
       <c r="L68" s="4">
         <v>9</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.3380000000000001</v>
+      <c r="M68" s="6">
+        <v>1338</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3663,8 +3675,8 @@
       <c r="L69" s="4">
         <v>21</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.3979999999999999</v>
+      <c r="M69" s="6">
+        <v>1398</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3704,8 +3716,8 @@
       <c r="L70" s="4">
         <v>12</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.107</v>
+      <c r="M70" s="6">
+        <v>1107</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3743,8 +3755,8 @@
       <c r="L71" s="4">
         <v>9</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.1639999999999999</v>
+      <c r="M71" s="6">
+        <v>1164</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3784,7 +3796,7 @@
       <c r="L72" s="4">
         <v>8</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>974</v>
       </c>
     </row>
@@ -3823,7 +3835,7 @@
       <c r="L73" s="4">
         <v>15</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>962</v>
       </c>
     </row>
@@ -3864,7 +3876,7 @@
       <c r="L74" s="4">
         <v>5</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>635</v>
       </c>
     </row>
@@ -3903,7 +3915,7 @@
       <c r="L75" s="4">
         <v>7</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>715</v>
       </c>
     </row>
@@ -3944,7 +3956,7 @@
       <c r="L76" s="4">
         <v>2</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>498</v>
       </c>
     </row>
@@ -3983,7 +3995,7 @@
       <c r="L77" s="4">
         <v>12</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>545</v>
       </c>
     </row>
@@ -4024,7 +4036,7 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>283</v>
       </c>
     </row>
@@ -4063,7 +4075,7 @@
       <c r="L79" s="4">
         <v>6</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>517</v>
       </c>
     </row>
@@ -4104,7 +4116,7 @@
       <c r="L80" s="4">
         <v>7</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>477</v>
       </c>
     </row>
@@ -4143,7 +4155,7 @@
       <c r="L81" s="4">
         <v>24</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>832</v>
       </c>
     </row>
@@ -4151,46 +4163,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>4.2779999999999996</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="E82" s="5">
-        <v>5.8470000000000004</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.7360000000000002</v>
-      </c>
-      <c r="G82" s="5">
-        <v>8.6519999999999992</v>
-      </c>
-      <c r="H82" s="5">
-        <v>8.3010000000000002</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.1539999999999999</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
+        <v>4278</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3575</v>
+      </c>
+      <c r="E82" s="6">
+        <v>5847</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2736</v>
+      </c>
+      <c r="G82" s="6">
+        <v>8652</v>
+      </c>
+      <c r="H82" s="6">
+        <v>8301</v>
+      </c>
+      <c r="I82" s="6">
+        <v>3154</v>
+      </c>
+      <c r="J82" s="8">
         <v>307</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>9</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>297</v>
       </c>
-      <c r="M82" s="5">
-        <v>37.155999999999999</v>
+      <c r="M82" s="6">
+        <v>37156</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4244,14 +4256,14 @@
       <c r="F84" s="4">
         <v>16</v>
       </c>
-      <c r="G84" s="4">
-        <v>6.41</v>
-      </c>
-      <c r="H84" s="4">
-        <v>9.3740000000000006</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.1559999999999999</v>
+      <c r="G84" s="5">
+        <v>6410</v>
+      </c>
+      <c r="H84" s="5">
+        <v>9374</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1156</v>
       </c>
       <c r="J84" s="4">
         <v>9</v>
@@ -4262,8 +4274,8 @@
       <c r="L84" s="4">
         <v>191</v>
       </c>
-      <c r="M84" s="5">
-        <v>17.530999999999999</v>
+      <c r="M84" s="6">
+        <v>17531</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4283,14 +4295,14 @@
       <c r="F85" s="4">
         <v>9</v>
       </c>
-      <c r="G85" s="4">
-        <v>6.8620000000000001</v>
-      </c>
-      <c r="H85" s="4">
-        <v>8.5060000000000002</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.514</v>
+      <c r="G85" s="5">
+        <v>6862</v>
+      </c>
+      <c r="H85" s="5">
+        <v>8506</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1514</v>
       </c>
       <c r="J85" s="4">
         <v>9</v>
@@ -4301,8 +4313,8 @@
       <c r="L85" s="4">
         <v>91</v>
       </c>
-      <c r="M85" s="5">
-        <v>17.725999999999999</v>
+      <c r="M85" s="6">
+        <v>17726</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4324,14 +4336,14 @@
       <c r="F86" s="4">
         <v>177</v>
       </c>
-      <c r="G86" s="4">
-        <v>3.9260000000000002</v>
-      </c>
-      <c r="H86" s="4">
-        <v>3.8540000000000001</v>
-      </c>
-      <c r="I86" s="4">
-        <v>3.3119999999999998</v>
+      <c r="G86" s="5">
+        <v>3926</v>
+      </c>
+      <c r="H86" s="5">
+        <v>3854</v>
+      </c>
+      <c r="I86" s="5">
+        <v>3312</v>
       </c>
       <c r="J86" s="4">
         <v>205</v>
@@ -4342,8 +4354,8 @@
       <c r="L86" s="4">
         <v>83</v>
       </c>
-      <c r="M86" s="5">
-        <v>11.938000000000001</v>
+      <c r="M86" s="6">
+        <v>11938</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4363,14 +4375,14 @@
       <c r="F87" s="4">
         <v>401</v>
       </c>
-      <c r="G87" s="4">
-        <v>3.7639999999999998</v>
-      </c>
-      <c r="H87" s="4">
-        <v>2.2090000000000001</v>
-      </c>
-      <c r="I87" s="4">
-        <v>3.3570000000000002</v>
+      <c r="G87" s="5">
+        <v>3764</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2209</v>
+      </c>
+      <c r="I87" s="5">
+        <v>3357</v>
       </c>
       <c r="J87" s="4">
         <v>190</v>
@@ -4381,8 +4393,8 @@
       <c r="L87" s="4">
         <v>114</v>
       </c>
-      <c r="M87" s="5">
-        <v>11.907999999999999</v>
+      <c r="M87" s="6">
+        <v>11908</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4401,17 +4413,17 @@
       <c r="E88" s="4">
         <v>202</v>
       </c>
-      <c r="F88" s="4">
-        <v>1.536</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1.861</v>
-      </c>
-      <c r="H88" s="4">
-        <v>3.1110000000000002</v>
-      </c>
-      <c r="I88" s="4">
-        <v>3.1659999999999999</v>
+      <c r="F88" s="5">
+        <v>1536</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1861</v>
+      </c>
+      <c r="H88" s="5">
+        <v>3111</v>
+      </c>
+      <c r="I88" s="5">
+        <v>3166</v>
       </c>
       <c r="J88" s="4">
         <v>548</v>
@@ -4422,8 +4434,8 @@
       <c r="L88" s="4">
         <v>80</v>
       </c>
-      <c r="M88" s="5">
-        <v>10.798999999999999</v>
+      <c r="M88" s="6">
+        <v>10799</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4434,23 +4446,23 @@
       <c r="C89" s="4">
         <v>645</v>
       </c>
-      <c r="D89" s="4">
-        <v>1.4870000000000001</v>
+      <c r="D89" s="5">
+        <v>1487</v>
       </c>
       <c r="E89" s="4">
         <v>771</v>
       </c>
-      <c r="F89" s="4">
-        <v>2.254</v>
-      </c>
-      <c r="G89" s="4">
-        <v>1.222</v>
-      </c>
-      <c r="H89" s="4">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="I89" s="4">
-        <v>2.0859999999999999</v>
+      <c r="F89" s="5">
+        <v>2254</v>
+      </c>
+      <c r="G89" s="5">
+        <v>1222</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1596</v>
+      </c>
+      <c r="I89" s="5">
+        <v>2086</v>
       </c>
       <c r="J89" s="4">
         <v>272</v>
@@ -4461,8 +4473,8 @@
       <c r="L89" s="4">
         <v>182</v>
       </c>
-      <c r="M89" s="5">
-        <v>10.515000000000001</v>
+      <c r="M89" s="6">
+        <v>10515</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4481,17 +4493,17 @@
       <c r="E90" s="4">
         <v>959</v>
       </c>
-      <c r="F90" s="4">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H90" s="4">
-        <v>2.7389999999999999</v>
-      </c>
-      <c r="I90" s="4">
-        <v>2.0459999999999998</v>
+      <c r="F90" s="5">
+        <v>1461</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1192</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2739</v>
+      </c>
+      <c r="I90" s="5">
+        <v>2046</v>
       </c>
       <c r="J90" s="4">
         <v>403</v>
@@ -4502,8 +4514,8 @@
       <c r="L90" s="4">
         <v>122</v>
       </c>
-      <c r="M90" s="5">
-        <v>9.282</v>
+      <c r="M90" s="6">
+        <v>9282</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4514,20 +4526,20 @@
       <c r="C91" s="4">
         <v>793</v>
       </c>
-      <c r="D91" s="4">
-        <v>1.044</v>
-      </c>
-      <c r="E91" s="4">
-        <v>2.4809999999999999</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.1399999999999999</v>
+      <c r="D91" s="5">
+        <v>1044</v>
+      </c>
+      <c r="E91" s="5">
+        <v>2481</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1140</v>
       </c>
       <c r="G91" s="4">
         <v>713</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.1639999999999999</v>
+      <c r="H91" s="5">
+        <v>1164</v>
       </c>
       <c r="I91" s="4">
         <v>948</v>
@@ -4541,8 +4553,8 @@
       <c r="L91" s="4">
         <v>133</v>
       </c>
-      <c r="M91" s="5">
-        <v>8.5329999999999995</v>
+      <c r="M91" s="6">
+        <v>8533</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4558,20 +4570,20 @@
       <c r="D92" s="4">
         <v>153</v>
       </c>
-      <c r="E92" s="4">
-        <v>1.595</v>
-      </c>
-      <c r="F92" s="4">
-        <v>1.107</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="H92" s="4">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1.0649999999999999</v>
+      <c r="E92" s="5">
+        <v>1595</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1107</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1632</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2283</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1065</v>
       </c>
       <c r="J92" s="4">
         <v>260</v>
@@ -4582,8 +4594,8 @@
       <c r="L92" s="4">
         <v>89</v>
       </c>
-      <c r="M92" s="5">
-        <v>8.2490000000000006</v>
+      <c r="M92" s="6">
+        <v>8249</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4597,8 +4609,8 @@
       <c r="D93" s="4">
         <v>918</v>
       </c>
-      <c r="E93" s="4">
-        <v>2.9990000000000001</v>
+      <c r="E93" s="5">
+        <v>2999</v>
       </c>
       <c r="F93" s="4">
         <v>645</v>
@@ -4621,8 +4633,8 @@
       <c r="L93" s="4">
         <v>159</v>
       </c>
-      <c r="M93" s="5">
-        <v>7.9450000000000003</v>
+      <c r="M93" s="6">
+        <v>7945</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4638,17 +4650,17 @@
       <c r="D94" s="4">
         <v>127</v>
       </c>
-      <c r="E94" s="4">
-        <v>1.472</v>
+      <c r="E94" s="5">
+        <v>1472</v>
       </c>
       <c r="F94" s="4">
         <v>848</v>
       </c>
-      <c r="G94" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="H94" s="4">
-        <v>1.4390000000000001</v>
+      <c r="G94" s="5">
+        <v>1280</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1439</v>
       </c>
       <c r="I94" s="4">
         <v>685</v>
@@ -4662,8 +4674,8 @@
       <c r="L94" s="4">
         <v>81</v>
       </c>
-      <c r="M94" s="5">
-        <v>6.0890000000000004</v>
+      <c r="M94" s="6">
+        <v>6089</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4671,14 +4683,14 @@
       <c r="B95" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="4">
-        <v>1.006</v>
+      <c r="C95" s="5">
+        <v>1006</v>
       </c>
       <c r="D95" s="4">
         <v>859</v>
       </c>
-      <c r="E95" s="4">
-        <v>2.4369999999999998</v>
+      <c r="E95" s="5">
+        <v>2437</v>
       </c>
       <c r="F95" s="4">
         <v>450</v>
@@ -4701,8 +4713,8 @@
       <c r="L95" s="4">
         <v>114</v>
       </c>
-      <c r="M95" s="5">
-        <v>6.2450000000000001</v>
+      <c r="M95" s="6">
+        <v>6245</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4718,14 +4730,14 @@
       <c r="D96" s="4">
         <v>94</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.427</v>
+      <c r="E96" s="5">
+        <v>1427</v>
       </c>
       <c r="F96" s="4">
         <v>876</v>
       </c>
-      <c r="G96" s="4">
-        <v>1.143</v>
+      <c r="G96" s="5">
+        <v>1143</v>
       </c>
       <c r="H96" s="4">
         <v>973</v>
@@ -4742,8 +4754,8 @@
       <c r="L96" s="4">
         <v>65</v>
       </c>
-      <c r="M96" s="5">
-        <v>5.0830000000000002</v>
+      <c r="M96" s="6">
+        <v>5083</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,14 +4763,14 @@
       <c r="B97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="4">
-        <v>1.1279999999999999</v>
+      <c r="C97" s="5">
+        <v>1128</v>
       </c>
       <c r="D97" s="4">
         <v>836</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.7250000000000001</v>
+      <c r="E97" s="5">
+        <v>1725</v>
       </c>
       <c r="F97" s="4">
         <v>325</v>
@@ -4781,8 +4793,8 @@
       <c r="L97" s="4">
         <v>109</v>
       </c>
-      <c r="M97" s="5">
-        <v>4.9800000000000004</v>
+      <c r="M97" s="6">
+        <v>4980</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4798,8 +4810,8 @@
       <c r="D98" s="4">
         <v>104</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.3029999999999999</v>
+      <c r="E98" s="5">
+        <v>1303</v>
       </c>
       <c r="F98" s="4">
         <v>600</v>
@@ -4822,8 +4834,8 @@
       <c r="L98" s="4">
         <v>41</v>
       </c>
-      <c r="M98" s="5">
-        <v>4.157</v>
+      <c r="M98" s="6">
+        <v>4157</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,14 +4843,14 @@
       <c r="B99" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="4">
-        <v>1.3280000000000001</v>
+      <c r="C99" s="5">
+        <v>1328</v>
       </c>
       <c r="D99" s="4">
         <v>671</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.228</v>
+      <c r="E99" s="5">
+        <v>1228</v>
       </c>
       <c r="F99" s="4">
         <v>184</v>
@@ -4861,8 +4873,8 @@
       <c r="L99" s="4">
         <v>110</v>
       </c>
-      <c r="M99" s="5">
-        <v>4.048</v>
+      <c r="M99" s="6">
+        <v>4048</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4902,8 +4914,8 @@
       <c r="L100" s="4">
         <v>36</v>
       </c>
-      <c r="M100" s="5">
-        <v>2.7320000000000002</v>
+      <c r="M100" s="6">
+        <v>2732</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4911,8 +4923,8 @@
       <c r="B101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="4">
-        <v>1.2470000000000001</v>
+      <c r="C101" s="5">
+        <v>1247</v>
       </c>
       <c r="D101" s="4">
         <v>508</v>
@@ -4941,8 +4953,8 @@
       <c r="L101" s="4">
         <v>81</v>
       </c>
-      <c r="M101" s="5">
-        <v>2.907</v>
+      <c r="M101" s="6">
+        <v>2907</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4982,8 +4994,8 @@
       <c r="L102" s="4">
         <v>31</v>
       </c>
-      <c r="M102" s="5">
-        <v>1.859</v>
+      <c r="M102" s="6">
+        <v>1859</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4991,8 +5003,8 @@
       <c r="B103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="4">
-        <v>1.3029999999999999</v>
+      <c r="C103" s="5">
+        <v>1303</v>
       </c>
       <c r="D103" s="4">
         <v>340</v>
@@ -5021,8 +5033,8 @@
       <c r="L103" s="4">
         <v>60</v>
       </c>
-      <c r="M103" s="5">
-        <v>2.2879999999999998</v>
+      <c r="M103" s="6">
+        <v>2288</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5062,8 +5074,8 @@
       <c r="L104" s="4">
         <v>34</v>
       </c>
-      <c r="M104" s="5">
-        <v>1.272</v>
+      <c r="M104" s="6">
+        <v>1272</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5071,8 +5083,8 @@
       <c r="B105" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="4">
-        <v>1.22</v>
+      <c r="C105" s="5">
+        <v>1220</v>
       </c>
       <c r="D105" s="4">
         <v>211</v>
@@ -5101,8 +5113,8 @@
       <c r="L105" s="4">
         <v>61</v>
       </c>
-      <c r="M105" s="5">
-        <v>1.79</v>
+      <c r="M105" s="6">
+        <v>1790</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5142,8 +5154,8 @@
       <c r="L106" s="4">
         <v>45</v>
       </c>
-      <c r="M106" s="5">
-        <v>1.6479999999999999</v>
+      <c r="M106" s="6">
+        <v>1648</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5151,8 +5163,8 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>2.0630000000000002</v>
+      <c r="C107" s="5">
+        <v>2063</v>
       </c>
       <c r="D107" s="4">
         <v>239</v>
@@ -5181,54 +5193,54 @@
       <c r="L107" s="4">
         <v>125</v>
       </c>
-      <c r="M107" s="5">
-        <v>2.6320000000000001</v>
+      <c r="M107" s="6">
+        <v>2632</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>13.311999999999999</v>
-      </c>
-      <c r="D108" s="5">
-        <v>10.242000000000001</v>
-      </c>
-      <c r="E108" s="5">
-        <v>24.67</v>
-      </c>
-      <c r="F108" s="5">
-        <v>12.733000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>34.329000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>41.237000000000002</v>
-      </c>
-      <c r="I108" s="5">
-        <v>21.091000000000001</v>
-      </c>
-      <c r="J108" s="5">
-        <v>2.2330000000000001</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>13312</v>
+      </c>
+      <c r="D108" s="6">
+        <v>10242</v>
+      </c>
+      <c r="E108" s="6">
+        <v>24670</v>
+      </c>
+      <c r="F108" s="6">
+        <v>12733</v>
+      </c>
+      <c r="G108" s="6">
+        <v>34329</v>
+      </c>
+      <c r="H108" s="6">
+        <v>41237</v>
+      </c>
+      <c r="I108" s="6">
+        <v>21091</v>
+      </c>
+      <c r="J108" s="6">
+        <v>2233</v>
+      </c>
+      <c r="K108" s="8">
         <v>72</v>
       </c>
-      <c r="L108" s="5">
-        <v>2.2370000000000001</v>
-      </c>
-      <c r="M108" s="5">
-        <v>162.15600000000001</v>
+      <c r="L108" s="6">
+        <v>2237</v>
+      </c>
+      <c r="M108" s="6">
+        <v>162156</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5282,11 +5294,11 @@
       <c r="F110" s="4">
         <v>1</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>1.355</v>
+      <c r="G110" s="5">
+        <v>1061</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1355</v>
       </c>
       <c r="I110" s="4">
         <v>159</v>
@@ -5300,8 +5312,8 @@
       <c r="L110" s="4">
         <v>39</v>
       </c>
-      <c r="M110" s="5">
-        <v>2.67</v>
+      <c r="M110" s="6">
+        <v>2670</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5321,11 +5333,11 @@
       <c r="F111" s="4">
         <v>2</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1.0049999999999999</v>
+      <c r="G111" s="5">
+        <v>1134</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1005</v>
       </c>
       <c r="I111" s="4">
         <v>166</v>
@@ -5339,8 +5351,8 @@
       <c r="L111" s="4">
         <v>2</v>
       </c>
-      <c r="M111" s="5">
-        <v>2.4329999999999998</v>
+      <c r="M111" s="6">
+        <v>2433</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5380,8 +5392,8 @@
       <c r="L112" s="4">
         <v>3</v>
       </c>
-      <c r="M112" s="5">
-        <v>1.651</v>
+      <c r="M112" s="6">
+        <v>1651</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5419,8 +5431,8 @@
       <c r="L113" s="4">
         <v>4</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.5369999999999999</v>
+      <c r="M113" s="6">
+        <v>1537</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5460,8 +5472,8 @@
       <c r="L114" s="4">
         <v>5</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.4790000000000001</v>
+      <c r="M114" s="6">
+        <v>1479</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5499,8 +5511,8 @@
       <c r="L115" s="4">
         <v>3</v>
       </c>
-      <c r="M115" s="5">
-        <v>1.28</v>
+      <c r="M115" s="6">
+        <v>1280</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5540,8 +5552,8 @@
       <c r="L116" s="4">
         <v>6</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.054</v>
+      <c r="M116" s="6">
+        <v>1054</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5579,7 +5591,7 @@
       <c r="L117" s="4">
         <v>10</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>989</v>
       </c>
     </row>
@@ -5620,7 +5632,7 @@
       <c r="L118" s="4">
         <v>2</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>976</v>
       </c>
     </row>
@@ -5659,7 +5671,7 @@
       <c r="L119" s="4">
         <v>7</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>956</v>
       </c>
     </row>
@@ -5700,7 +5712,7 @@
       <c r="L120" s="4">
         <v>5</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>754</v>
       </c>
     </row>
@@ -5739,7 +5751,7 @@
       <c r="L121" s="4">
         <v>6</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>759</v>
       </c>
     </row>
@@ -5780,7 +5792,7 @@
       <c r="L122" s="4">
         <v>1</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>597</v>
       </c>
     </row>
@@ -5819,7 +5831,7 @@
       <c r="L123" s="4">
         <v>7</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>724</v>
       </c>
     </row>
@@ -5860,7 +5872,7 @@
       <c r="L124" s="4">
         <v>2</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>604</v>
       </c>
     </row>
@@ -5899,7 +5911,7 @@
       <c r="L125" s="4">
         <v>7</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>550</v>
       </c>
     </row>
@@ -5940,7 +5952,7 @@
       <c r="L126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>416</v>
       </c>
     </row>
@@ -5979,7 +5991,7 @@
       <c r="L127" s="4">
         <v>2</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>459</v>
       </c>
     </row>
@@ -6020,7 +6032,7 @@
       <c r="L128" s="4">
         <v>3</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>301</v>
       </c>
     </row>
@@ -6059,7 +6071,7 @@
       <c r="L129" s="4">
         <v>2</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>320</v>
       </c>
     </row>
@@ -6100,7 +6112,7 @@
       <c r="L130" s="4">
         <v>2</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>235</v>
       </c>
     </row>
@@ -6139,7 +6151,7 @@
       <c r="L131" s="4">
         <v>6</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>323</v>
       </c>
     </row>
@@ -6180,7 +6192,7 @@
       <c r="L132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>364</v>
       </c>
     </row>
@@ -6219,7 +6231,7 @@
       <c r="L133" s="4">
         <v>5</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>537</v>
       </c>
     </row>
@@ -6227,46 +6239,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.859</v>
-      </c>
-      <c r="E134" s="5">
-        <v>3.0190000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.9359999999999999</v>
-      </c>
-      <c r="G134" s="5">
-        <v>4.6029999999999998</v>
-      </c>
-      <c r="H134" s="5">
-        <v>5.6369999999999996</v>
-      </c>
-      <c r="I134" s="5">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>2277</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1859</v>
+      </c>
+      <c r="E134" s="6">
+        <v>3019</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1936</v>
+      </c>
+      <c r="G134" s="6">
+        <v>4603</v>
+      </c>
+      <c r="H134" s="6">
+        <v>5637</v>
+      </c>
+      <c r="I134" s="6">
+        <v>2292</v>
+      </c>
+      <c r="J134" s="8">
         <v>207</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>9</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>129</v>
       </c>
-      <c r="M134" s="5">
-        <v>21.968</v>
+      <c r="M134" s="6">
+        <v>21968</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6320,11 +6332,11 @@
       <c r="F136" s="4">
         <v>5</v>
       </c>
-      <c r="G136" s="4">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="H136" s="4">
-        <v>4.5229999999999997</v>
+      <c r="G136" s="5">
+        <v>2507</v>
+      </c>
+      <c r="H136" s="5">
+        <v>4523</v>
       </c>
       <c r="I136" s="4">
         <v>571</v>
@@ -6338,8 +6350,8 @@
       <c r="L136" s="4">
         <v>148</v>
       </c>
-      <c r="M136" s="5">
-        <v>7.915</v>
+      <c r="M136" s="6">
+        <v>7915</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6359,11 +6371,11 @@
       <c r="F137" s="4">
         <v>5</v>
       </c>
-      <c r="G137" s="4">
-        <v>2.65</v>
-      </c>
-      <c r="H137" s="4">
-        <v>4.3470000000000004</v>
+      <c r="G137" s="5">
+        <v>2650</v>
+      </c>
+      <c r="H137" s="5">
+        <v>4347</v>
       </c>
       <c r="I137" s="4">
         <v>893</v>
@@ -6377,8 +6389,8 @@
       <c r="L137" s="4">
         <v>54</v>
       </c>
-      <c r="M137" s="5">
-        <v>8.1720000000000006</v>
+      <c r="M137" s="6">
+        <v>8172</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6400,14 +6412,14 @@
       <c r="F138" s="4">
         <v>53</v>
       </c>
-      <c r="G138" s="4">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="H138" s="4">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.4179999999999999</v>
+      <c r="G138" s="5">
+        <v>1158</v>
+      </c>
+      <c r="H138" s="5">
+        <v>1703</v>
+      </c>
+      <c r="I138" s="5">
+        <v>1418</v>
       </c>
       <c r="J138" s="4">
         <v>133</v>
@@ -6418,8 +6430,8 @@
       <c r="L138" s="4">
         <v>52</v>
       </c>
-      <c r="M138" s="5">
-        <v>4.7220000000000004</v>
+      <c r="M138" s="6">
+        <v>4722</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6439,14 +6451,14 @@
       <c r="F139" s="4">
         <v>159</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="H139" s="4">
-        <v>1.232</v>
-      </c>
-      <c r="I139" s="4">
-        <v>1.554</v>
+      <c r="G139" s="5">
+        <v>1422</v>
+      </c>
+      <c r="H139" s="5">
+        <v>1232</v>
+      </c>
+      <c r="I139" s="5">
+        <v>1554</v>
       </c>
       <c r="J139" s="4">
         <v>124</v>
@@ -6457,8 +6469,8 @@
       <c r="L139" s="4">
         <v>62</v>
       </c>
-      <c r="M139" s="5">
-        <v>5.1689999999999996</v>
+      <c r="M139" s="6">
+        <v>5169</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6483,11 +6495,11 @@
       <c r="G140" s="4">
         <v>547</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.462</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.36</v>
+      <c r="H140" s="5">
+        <v>1462</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1360</v>
       </c>
       <c r="J140" s="4">
         <v>246</v>
@@ -6498,8 +6510,8 @@
       <c r="L140" s="4">
         <v>76</v>
       </c>
-      <c r="M140" s="5">
-        <v>4.5179999999999998</v>
+      <c r="M140" s="6">
+        <v>4518</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6522,11 +6534,11 @@
       <c r="G141" s="4">
         <v>525</v>
       </c>
-      <c r="H141" s="4">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="I141" s="4">
-        <v>1</v>
+      <c r="H141" s="5">
+        <v>1003</v>
+      </c>
+      <c r="I141" s="5">
+        <v>1000</v>
       </c>
       <c r="J141" s="4">
         <v>152</v>
@@ -6537,8 +6549,8 @@
       <c r="L141" s="4">
         <v>107</v>
       </c>
-      <c r="M141" s="5">
-        <v>4.6539999999999999</v>
+      <c r="M141" s="6">
+        <v>4654</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6563,8 +6575,8 @@
       <c r="G142" s="4">
         <v>346</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.4279999999999999</v>
+      <c r="H142" s="5">
+        <v>1428</v>
       </c>
       <c r="I142" s="4">
         <v>880</v>
@@ -6578,8 +6590,8 @@
       <c r="L142" s="4">
         <v>163</v>
       </c>
-      <c r="M142" s="5">
-        <v>3.911</v>
+      <c r="M142" s="6">
+        <v>3911</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6602,8 +6614,8 @@
       <c r="G143" s="4">
         <v>302</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.0409999999999999</v>
+      <c r="H143" s="5">
+        <v>1041</v>
       </c>
       <c r="I143" s="4">
         <v>387</v>
@@ -6617,8 +6629,8 @@
       <c r="L143" s="4">
         <v>103</v>
       </c>
-      <c r="M143" s="5">
-        <v>3.706</v>
+      <c r="M143" s="6">
+        <v>3706</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6643,8 +6655,8 @@
       <c r="G144" s="4">
         <v>477</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.2450000000000001</v>
+      <c r="H144" s="5">
+        <v>1245</v>
       </c>
       <c r="I144" s="4">
         <v>568</v>
@@ -6658,8 +6670,8 @@
       <c r="L144" s="4">
         <v>120</v>
       </c>
-      <c r="M144" s="5">
-        <v>3.5139999999999998</v>
+      <c r="M144" s="6">
+        <v>3514</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6673,8 +6685,8 @@
       <c r="D145" s="4">
         <v>368</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.008</v>
+      <c r="E145" s="5">
+        <v>1008</v>
       </c>
       <c r="F145" s="4">
         <v>362</v>
@@ -6697,8 +6709,8 @@
       <c r="L145" s="4">
         <v>106</v>
       </c>
-      <c r="M145" s="5">
-        <v>3.71</v>
+      <c r="M145" s="6">
+        <v>3710</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6738,8 +6750,8 @@
       <c r="L146" s="4">
         <v>76</v>
       </c>
-      <c r="M146" s="5">
-        <v>2.798</v>
+      <c r="M146" s="6">
+        <v>2798</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6777,8 +6789,8 @@
       <c r="L147" s="4">
         <v>102</v>
       </c>
-      <c r="M147" s="5">
-        <v>3.1230000000000002</v>
+      <c r="M147" s="6">
+        <v>3123</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6818,8 +6830,8 @@
       <c r="L148" s="4">
         <v>76</v>
       </c>
-      <c r="M148" s="5">
-        <v>2.38</v>
+      <c r="M148" s="6">
+        <v>2380</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6857,8 +6869,8 @@
       <c r="L149" s="4">
         <v>86</v>
       </c>
-      <c r="M149" s="5">
-        <v>2.4119999999999999</v>
+      <c r="M149" s="6">
+        <v>2412</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6898,8 +6910,8 @@
       <c r="L150" s="4">
         <v>78</v>
       </c>
-      <c r="M150" s="5">
-        <v>2.0430000000000001</v>
+      <c r="M150" s="6">
+        <v>2043</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6937,8 +6949,8 @@
       <c r="L151" s="4">
         <v>91</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.9930000000000001</v>
+      <c r="M151" s="6">
+        <v>1993</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6978,8 +6990,8 @@
       <c r="L152" s="4">
         <v>68</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.546</v>
+      <c r="M152" s="6">
+        <v>1546</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7017,8 +7029,8 @@
       <c r="L153" s="4">
         <v>78</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.4590000000000001</v>
+      <c r="M153" s="6">
+        <v>1459</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7058,8 +7070,8 @@
       <c r="L154" s="4">
         <v>65</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.2450000000000001</v>
+      <c r="M154" s="6">
+        <v>1245</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7097,8 +7109,8 @@
       <c r="L155" s="4">
         <v>98</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.427</v>
+      <c r="M155" s="6">
+        <v>1427</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7138,7 +7150,7 @@
       <c r="L156" s="4">
         <v>49</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>987</v>
       </c>
     </row>
@@ -7177,8 +7189,8 @@
       <c r="L157" s="4">
         <v>75</v>
       </c>
-      <c r="M157" s="5">
-        <v>1.276</v>
+      <c r="M157" s="6">
+        <v>1276</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7218,8 +7230,8 @@
       <c r="L158" s="4">
         <v>97</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.706</v>
+      <c r="M158" s="6">
+        <v>1706</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7227,8 +7239,8 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.637</v>
+      <c r="C159" s="5">
+        <v>1637</v>
       </c>
       <c r="D159" s="4">
         <v>317</v>
@@ -7257,54 +7269,54 @@
       <c r="L159" s="4">
         <v>177</v>
       </c>
-      <c r="M159" s="5">
-        <v>2.464</v>
+      <c r="M159" s="6">
+        <v>2464</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>6.508</v>
-      </c>
-      <c r="D160" s="5">
-        <v>5.1580000000000004</v>
-      </c>
-      <c r="E160" s="5">
-        <v>10.548999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>4.9809999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>12.842000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>23.35</v>
-      </c>
-      <c r="I160" s="5">
-        <v>10.077999999999999</v>
-      </c>
-      <c r="J160" s="5">
-        <v>1.129</v>
-      </c>
-      <c r="K160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>6508</v>
+      </c>
+      <c r="D160" s="6">
+        <v>5158</v>
+      </c>
+      <c r="E160" s="6">
+        <v>10549</v>
+      </c>
+      <c r="F160" s="6">
+        <v>4981</v>
+      </c>
+      <c r="G160" s="6">
+        <v>12842</v>
+      </c>
+      <c r="H160" s="6">
+        <v>23350</v>
+      </c>
+      <c r="I160" s="6">
+        <v>10078</v>
+      </c>
+      <c r="J160" s="6">
+        <v>1129</v>
+      </c>
+      <c r="K160" s="8">
         <v>48</v>
       </c>
-      <c r="L160" s="5">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="M160" s="5">
-        <v>76.849999999999994</v>
+      <c r="L160" s="6">
+        <v>2207</v>
+      </c>
+      <c r="M160" s="6">
+        <v>76850</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7358,11 +7370,11 @@
       <c r="F162" s="4">
         <v>6</v>
       </c>
-      <c r="G162" s="4">
-        <v>2.4239999999999999</v>
-      </c>
-      <c r="H162" s="4">
-        <v>4.37</v>
+      <c r="G162" s="5">
+        <v>2424</v>
+      </c>
+      <c r="H162" s="5">
+        <v>4370</v>
       </c>
       <c r="I162" s="4">
         <v>498</v>
@@ -7376,8 +7388,8 @@
       <c r="L162" s="4">
         <v>108</v>
       </c>
-      <c r="M162" s="5">
-        <v>7.6239999999999997</v>
+      <c r="M162" s="6">
+        <v>7624</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7397,11 +7409,11 @@
       <c r="F163" s="4">
         <v>5</v>
       </c>
-      <c r="G163" s="4">
-        <v>2.1930000000000001</v>
-      </c>
-      <c r="H163" s="4">
-        <v>4.7</v>
+      <c r="G163" s="5">
+        <v>2193</v>
+      </c>
+      <c r="H163" s="5">
+        <v>4700</v>
       </c>
       <c r="I163" s="4">
         <v>874</v>
@@ -7415,8 +7427,8 @@
       <c r="L163" s="4">
         <v>54</v>
       </c>
-      <c r="M163" s="5">
-        <v>8.0990000000000002</v>
+      <c r="M163" s="6">
+        <v>8099</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7438,14 +7450,14 @@
       <c r="F164" s="4">
         <v>92</v>
       </c>
-      <c r="G164" s="4">
-        <v>1.337</v>
-      </c>
-      <c r="H164" s="4">
-        <v>2</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1.4219999999999999</v>
+      <c r="G164" s="5">
+        <v>1337</v>
+      </c>
+      <c r="H164" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I164" s="5">
+        <v>1422</v>
       </c>
       <c r="J164" s="4">
         <v>96</v>
@@ -7456,8 +7468,8 @@
       <c r="L164" s="4">
         <v>62</v>
       </c>
-      <c r="M164" s="5">
-        <v>5.2249999999999996</v>
+      <c r="M164" s="6">
+        <v>5225</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7477,14 +7489,14 @@
       <c r="F165" s="4">
         <v>189</v>
       </c>
-      <c r="G165" s="4">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="H165" s="4">
-        <v>1.407</v>
-      </c>
-      <c r="I165" s="4">
-        <v>1.68</v>
+      <c r="G165" s="5">
+        <v>1225</v>
+      </c>
+      <c r="H165" s="5">
+        <v>1407</v>
+      </c>
+      <c r="I165" s="5">
+        <v>1680</v>
       </c>
       <c r="J165" s="4">
         <v>98</v>
@@ -7495,8 +7507,8 @@
       <c r="L165" s="4">
         <v>71</v>
       </c>
-      <c r="M165" s="5">
-        <v>5.2519999999999998</v>
+      <c r="M165" s="6">
+        <v>5252</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7521,11 +7533,11 @@
       <c r="G166" s="4">
         <v>533</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.494</v>
-      </c>
-      <c r="I166" s="4">
-        <v>1.2689999999999999</v>
+      <c r="H166" s="5">
+        <v>1494</v>
+      </c>
+      <c r="I166" s="5">
+        <v>1269</v>
       </c>
       <c r="J166" s="4">
         <v>194</v>
@@ -7536,8 +7548,8 @@
       <c r="L166" s="4">
         <v>53</v>
       </c>
-      <c r="M166" s="5">
-        <v>4.5359999999999996</v>
+      <c r="M166" s="6">
+        <v>4536</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7563,8 +7575,8 @@
       <c r="H167" s="4">
         <v>980</v>
       </c>
-      <c r="I167" s="4">
-        <v>1.014</v>
+      <c r="I167" s="5">
+        <v>1014</v>
       </c>
       <c r="J167" s="4">
         <v>114</v>
@@ -7575,8 +7587,8 @@
       <c r="L167" s="4">
         <v>91</v>
       </c>
-      <c r="M167" s="5">
-        <v>4.47</v>
+      <c r="M167" s="6">
+        <v>4470</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7601,8 +7613,8 @@
       <c r="G168" s="4">
         <v>407</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.274</v>
+      <c r="H168" s="5">
+        <v>1274</v>
       </c>
       <c r="I168" s="4">
         <v>713</v>
@@ -7616,8 +7628,8 @@
       <c r="L168" s="4">
         <v>129</v>
       </c>
-      <c r="M168" s="5">
-        <v>3.77</v>
+      <c r="M168" s="6">
+        <v>3770</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7655,8 +7667,8 @@
       <c r="L169" s="4">
         <v>96</v>
       </c>
-      <c r="M169" s="5">
-        <v>3.8439999999999999</v>
+      <c r="M169" s="6">
+        <v>3844</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7681,8 +7693,8 @@
       <c r="G170" s="4">
         <v>638</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.048</v>
+      <c r="H170" s="5">
+        <v>1048</v>
       </c>
       <c r="I170" s="4">
         <v>401</v>
@@ -7696,8 +7708,8 @@
       <c r="L170" s="4">
         <v>72</v>
       </c>
-      <c r="M170" s="5">
-        <v>3.431</v>
+      <c r="M170" s="6">
+        <v>3431</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7735,8 +7747,8 @@
       <c r="L171" s="4">
         <v>96</v>
       </c>
-      <c r="M171" s="5">
-        <v>3.5419999999999998</v>
+      <c r="M171" s="6">
+        <v>3542</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7776,8 +7788,8 @@
       <c r="L172" s="4">
         <v>83</v>
       </c>
-      <c r="M172" s="5">
-        <v>2.794</v>
+      <c r="M172" s="6">
+        <v>2794</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7815,8 +7827,8 @@
       <c r="L173" s="4">
         <v>79</v>
       </c>
-      <c r="M173" s="5">
-        <v>2.9609999999999999</v>
+      <c r="M173" s="6">
+        <v>2961</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7856,8 +7868,8 @@
       <c r="L174" s="4">
         <v>72</v>
       </c>
-      <c r="M174" s="5">
-        <v>2.298</v>
+      <c r="M174" s="6">
+        <v>2298</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7895,8 +7907,8 @@
       <c r="L175" s="4">
         <v>81</v>
       </c>
-      <c r="M175" s="5">
-        <v>2.3439999999999999</v>
+      <c r="M175" s="6">
+        <v>2344</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7936,8 +7948,8 @@
       <c r="L176" s="4">
         <v>70</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.8720000000000001</v>
+      <c r="M176" s="6">
+        <v>1872</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7975,8 +7987,8 @@
       <c r="L177" s="4">
         <v>64</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.8819999999999999</v>
+      <c r="M177" s="6">
+        <v>1882</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8016,8 +8028,8 @@
       <c r="L178" s="4">
         <v>46</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.343</v>
+      <c r="M178" s="6">
+        <v>1343</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8055,8 +8067,8 @@
       <c r="L179" s="4">
         <v>65</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.478</v>
+      <c r="M179" s="6">
+        <v>1478</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8096,8 +8108,8 @@
       <c r="L180" s="4">
         <v>43</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.123</v>
+      <c r="M180" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8135,8 +8147,8 @@
       <c r="L181" s="4">
         <v>43</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.3</v>
+      <c r="M181" s="6">
+        <v>1300</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8176,7 +8188,7 @@
       <c r="L182" s="4">
         <v>19</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>783</v>
       </c>
     </row>
@@ -8215,8 +8227,8 @@
       <c r="L183" s="4">
         <v>32</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.0780000000000001</v>
+      <c r="M183" s="6">
+        <v>1078</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8256,8 +8268,8 @@
       <c r="L184" s="4">
         <v>40</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.1559999999999999</v>
+      <c r="M184" s="6">
+        <v>1156</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8265,8 +8277,8 @@
       <c r="B185" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="4">
-        <v>1.476</v>
+      <c r="C185" s="5">
+        <v>1476</v>
       </c>
       <c r="D185" s="4">
         <v>98</v>
@@ -8295,54 +8307,54 @@
       <c r="L185" s="4">
         <v>103</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.7929999999999999</v>
+      <c r="M185" s="6">
+        <v>1793</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>7.0380000000000003</v>
-      </c>
-      <c r="D186" s="5">
-        <v>4.6449999999999996</v>
-      </c>
-      <c r="E186" s="5">
-        <v>9.1419999999999995</v>
-      </c>
-      <c r="F186" s="5">
-        <v>6.0220000000000002</v>
-      </c>
-      <c r="G186" s="5">
-        <v>13.215</v>
-      </c>
-      <c r="H186" s="5">
-        <v>22.068000000000001</v>
-      </c>
-      <c r="I186" s="5">
-        <v>9.2449999999999992</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
+        <v>7038</v>
+      </c>
+      <c r="D186" s="6">
+        <v>4645</v>
+      </c>
+      <c r="E186" s="6">
+        <v>9142</v>
+      </c>
+      <c r="F186" s="6">
+        <v>6022</v>
+      </c>
+      <c r="G186" s="6">
+        <v>13215</v>
+      </c>
+      <c r="H186" s="6">
+        <v>22068</v>
+      </c>
+      <c r="I186" s="6">
+        <v>9245</v>
+      </c>
+      <c r="J186" s="8">
         <v>922</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>29</v>
       </c>
-      <c r="L186" s="5">
-        <v>1.6719999999999999</v>
-      </c>
-      <c r="M186" s="5">
-        <v>73.998000000000005</v>
+      <c r="L186" s="6">
+        <v>1672</v>
+      </c>
+      <c r="M186" s="6">
+        <v>73998</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8414,7 +8426,7 @@
       <c r="L188" s="4">
         <v>25</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="8">
         <v>925</v>
       </c>
     </row>
@@ -8453,7 +8465,7 @@
       <c r="L189" s="4">
         <v>11</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="8">
         <v>854</v>
       </c>
     </row>
@@ -8494,7 +8506,7 @@
       <c r="L190" s="4">
         <v>15</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="8">
         <v>654</v>
       </c>
     </row>
@@ -8533,7 +8545,7 @@
       <c r="L191" s="4">
         <v>9</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>555</v>
       </c>
     </row>
@@ -8574,7 +8586,7 @@
       <c r="L192" s="4">
         <v>5</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>498</v>
       </c>
     </row>
@@ -8613,7 +8625,7 @@
       <c r="L193" s="4">
         <v>10</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>409</v>
       </c>
     </row>
@@ -8654,7 +8666,7 @@
       <c r="L194" s="4">
         <v>12</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>371</v>
       </c>
     </row>
@@ -8693,7 +8705,7 @@
       <c r="L195" s="4">
         <v>6</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>367</v>
       </c>
     </row>
@@ -8734,7 +8746,7 @@
       <c r="L196" s="4">
         <v>8</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="8">
         <v>374</v>
       </c>
     </row>
@@ -8773,7 +8785,7 @@
       <c r="L197" s="4">
         <v>10</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>347</v>
       </c>
     </row>
@@ -8814,7 +8826,7 @@
       <c r="L198" s="4">
         <v>18</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="8">
         <v>357</v>
       </c>
     </row>
@@ -8853,7 +8865,7 @@
       <c r="L199" s="4">
         <v>11</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>347</v>
       </c>
     </row>
@@ -8894,7 +8906,7 @@
       <c r="L200" s="4">
         <v>15</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="8">
         <v>358</v>
       </c>
     </row>
@@ -8933,7 +8945,7 @@
       <c r="L201" s="4">
         <v>14</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>325</v>
       </c>
     </row>
@@ -8974,7 +8986,7 @@
       <c r="L202" s="4">
         <v>16</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="8">
         <v>288</v>
       </c>
     </row>
@@ -9013,7 +9025,7 @@
       <c r="L203" s="4">
         <v>14</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="8">
         <v>271</v>
       </c>
     </row>
@@ -9054,7 +9066,7 @@
       <c r="L204" s="4">
         <v>10</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="8">
         <v>240</v>
       </c>
     </row>
@@ -9093,7 +9105,7 @@
       <c r="L205" s="4">
         <v>20</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="8">
         <v>235</v>
       </c>
     </row>
@@ -9134,7 +9146,7 @@
       <c r="L206" s="4">
         <v>20</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="8">
         <v>233</v>
       </c>
     </row>
@@ -9173,7 +9185,7 @@
       <c r="L207" s="4">
         <v>12</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="8">
         <v>187</v>
       </c>
     </row>
@@ -9214,7 +9226,7 @@
       <c r="L208" s="4">
         <v>8</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>158</v>
       </c>
     </row>
@@ -9253,7 +9265,7 @@
       <c r="L209" s="4">
         <v>2</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>169</v>
       </c>
     </row>
@@ -9294,7 +9306,7 @@
       <c r="L210" s="4">
         <v>17</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>278</v>
       </c>
     </row>
@@ -9333,7 +9345,7 @@
       <c r="L211" s="4">
         <v>30</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="8">
         <v>373</v>
       </c>
     </row>
@@ -9341,46 +9353,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>945</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="8">
         <v>608</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="F212" s="5">
+      <c r="E212" s="6">
+        <v>1503</v>
+      </c>
+      <c r="F212" s="8">
         <v>700</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="G212" s="6">
+        <v>1687</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2503</v>
+      </c>
+      <c r="I212" s="8">
         <v>844</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="8">
         <v>63</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>2</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>318</v>
       </c>
-      <c r="M212" s="5">
-        <v>9.173</v>
+      <c r="M212" s="6">
+        <v>9173</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9452,8 +9464,8 @@
       <c r="L214" s="4">
         <v>31</v>
       </c>
-      <c r="M214" s="5">
-        <v>1.649</v>
+      <c r="M214" s="6">
+        <v>1649</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9491,8 +9503,8 @@
       <c r="L215" s="4">
         <v>10</v>
       </c>
-      <c r="M215" s="5">
-        <v>1.5960000000000001</v>
+      <c r="M215" s="6">
+        <v>1596</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9532,8 +9544,8 @@
       <c r="L216" s="4">
         <v>14</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.03</v>
+      <c r="M216" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9571,7 +9583,7 @@
       <c r="L217" s="4">
         <v>15</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="8">
         <v>829</v>
       </c>
     </row>
@@ -9612,7 +9624,7 @@
       <c r="L218" s="4">
         <v>16</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="8">
         <v>754</v>
       </c>
     </row>
@@ -9651,7 +9663,7 @@
       <c r="L219" s="4">
         <v>16</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="8">
         <v>682</v>
       </c>
     </row>
@@ -9692,7 +9704,7 @@
       <c r="L220" s="4">
         <v>36</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="8">
         <v>617</v>
       </c>
     </row>
@@ -9731,7 +9743,7 @@
       <c r="L221" s="4">
         <v>14</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="8">
         <v>617</v>
       </c>
     </row>
@@ -9772,7 +9784,7 @@
       <c r="L222" s="4">
         <v>27</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="8">
         <v>705</v>
       </c>
     </row>
@@ -9811,7 +9823,7 @@
       <c r="L223" s="4">
         <v>28</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="8">
         <v>731</v>
       </c>
     </row>
@@ -9852,7 +9864,7 @@
       <c r="L224" s="4">
         <v>21</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="8">
         <v>610</v>
       </c>
     </row>
@@ -9891,7 +9903,7 @@
       <c r="L225" s="4">
         <v>20</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="8">
         <v>670</v>
       </c>
     </row>
@@ -9932,7 +9944,7 @@
       <c r="L226" s="4">
         <v>25</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="8">
         <v>653</v>
       </c>
     </row>
@@ -9971,7 +9983,7 @@
       <c r="L227" s="4">
         <v>18</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="8">
         <v>587</v>
       </c>
     </row>
@@ -10012,7 +10024,7 @@
       <c r="L228" s="4">
         <v>16</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="8">
         <v>511</v>
       </c>
     </row>
@@ -10051,7 +10063,7 @@
       <c r="L229" s="4">
         <v>24</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="8">
         <v>490</v>
       </c>
     </row>
@@ -10092,7 +10104,7 @@
       <c r="L230" s="4">
         <v>15</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="8">
         <v>370</v>
       </c>
     </row>
@@ -10131,7 +10143,7 @@
       <c r="L231" s="4">
         <v>21</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="8">
         <v>398</v>
       </c>
     </row>
@@ -10172,7 +10184,7 @@
       <c r="L232" s="4">
         <v>3</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="8">
         <v>321</v>
       </c>
     </row>
@@ -10211,7 +10223,7 @@
       <c r="L233" s="4">
         <v>15</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="8">
         <v>383</v>
       </c>
     </row>
@@ -10252,7 +10264,7 @@
       <c r="L234" s="4">
         <v>6</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>261</v>
       </c>
     </row>
@@ -10291,7 +10303,7 @@
       <c r="L235" s="4">
         <v>14</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="8">
         <v>396</v>
       </c>
     </row>
@@ -10332,7 +10344,7 @@
       <c r="L236" s="4">
         <v>7</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="8">
         <v>499</v>
       </c>
     </row>
@@ -10371,7 +10383,7 @@
       <c r="L237" s="4">
         <v>28</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="8">
         <v>789</v>
       </c>
     </row>
@@ -10379,46 +10391,46 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>2.0289999999999999</v>
-      </c>
-      <c r="D238" s="5">
-        <v>1.643</v>
-      </c>
-      <c r="E238" s="5">
-        <v>2.98</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>3.3010000000000002</v>
-      </c>
-      <c r="H238" s="5">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="I238" s="5">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>2029</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1643</v>
+      </c>
+      <c r="E238" s="6">
+        <v>2980</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1203</v>
+      </c>
+      <c r="G238" s="6">
+        <v>3301</v>
+      </c>
+      <c r="H238" s="6">
+        <v>3438</v>
+      </c>
+      <c r="I238" s="6">
+        <v>1045</v>
+      </c>
+      <c r="J238" s="8">
         <v>67</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>2</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>440</v>
       </c>
-      <c r="M238" s="5">
-        <v>16.148</v>
+      <c r="M238" s="6">
+        <v>16148</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10490,8 +10502,8 @@
       <c r="L240" s="4">
         <v>17</v>
       </c>
-      <c r="M240" s="5">
-        <v>1.0760000000000001</v>
+      <c r="M240" s="6">
+        <v>1076</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10529,8 +10541,8 @@
       <c r="L241" s="4">
         <v>6</v>
       </c>
-      <c r="M241" s="5">
-        <v>1.044</v>
+      <c r="M241" s="6">
+        <v>1044</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10570,7 +10582,7 @@
       <c r="L242" s="4">
         <v>7</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="8">
         <v>561</v>
       </c>
     </row>
@@ -10609,7 +10621,7 @@
       <c r="L243" s="4">
         <v>5</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="8">
         <v>554</v>
       </c>
     </row>
@@ -10650,7 +10662,7 @@
       <c r="L244" s="4">
         <v>2</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="8">
         <v>496</v>
       </c>
     </row>
@@ -10689,7 +10701,7 @@
       <c r="L245" s="4">
         <v>2</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="8">
         <v>432</v>
       </c>
     </row>
@@ -10730,7 +10742,7 @@
       <c r="L246" s="4">
         <v>9</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="8">
         <v>408</v>
       </c>
     </row>
@@ -10769,7 +10781,7 @@
       <c r="L247" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="8">
         <v>338</v>
       </c>
     </row>
@@ -10810,7 +10822,7 @@
       <c r="L248" s="4">
         <v>6</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="8">
         <v>369</v>
       </c>
     </row>
@@ -10849,7 +10861,7 @@
       <c r="L249" s="4">
         <v>1</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="8">
         <v>321</v>
       </c>
     </row>
@@ -10890,7 +10902,7 @@
       <c r="L250" s="4">
         <v>2</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="8">
         <v>295</v>
       </c>
     </row>
@@ -10929,7 +10941,7 @@
       <c r="L251" s="4">
         <v>5</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="8">
         <v>312</v>
       </c>
     </row>
@@ -10970,7 +10982,7 @@
       <c r="L252" s="4">
         <v>3</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="8">
         <v>288</v>
       </c>
     </row>
@@ -11009,7 +11021,7 @@
       <c r="L253" s="4">
         <v>7</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="8">
         <v>257</v>
       </c>
     </row>
@@ -11050,7 +11062,7 @@
       <c r="L254" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="8">
         <v>229</v>
       </c>
     </row>
@@ -11089,7 +11101,7 @@
       <c r="L255" s="4">
         <v>2</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="8">
         <v>199</v>
       </c>
     </row>
@@ -11130,7 +11142,7 @@
       <c r="L256" s="4">
         <v>1</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="8">
         <v>177</v>
       </c>
     </row>
@@ -11169,7 +11181,7 @@
       <c r="L257" s="4">
         <v>2</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="8">
         <v>198</v>
       </c>
     </row>
@@ -11210,7 +11222,7 @@
       <c r="L258" s="4">
         <v>1</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="8">
         <v>134</v>
       </c>
     </row>
@@ -11249,7 +11261,7 @@
       <c r="L259" s="4">
         <v>2</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="8">
         <v>172</v>
       </c>
     </row>
@@ -11290,7 +11302,7 @@
       <c r="L260" s="4">
         <v>2</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="8">
         <v>111</v>
       </c>
     </row>
@@ -11329,7 +11341,7 @@
       <c r="L261" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="8">
         <v>134</v>
       </c>
     </row>
@@ -11370,7 +11382,7 @@
       <c r="L262" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="8">
         <v>182</v>
       </c>
     </row>
@@ -11409,7 +11421,7 @@
       <c r="L263" s="4">
         <v>2</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="8">
         <v>224</v>
       </c>
     </row>
@@ -11417,39 +11429,49 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>728</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="8">
         <v>490</v>
       </c>
-      <c r="E264" s="5">
-        <v>1.298</v>
-      </c>
-      <c r="F264" s="5">
+      <c r="E264" s="6">
+        <v>1298</v>
+      </c>
+      <c r="F264" s="8">
         <v>823</v>
       </c>
-      <c r="G264" s="5">
-        <v>1.8420000000000001</v>
-      </c>
-      <c r="H264" s="5">
-        <v>2.4180000000000001</v>
-      </c>
-      <c r="I264" s="5">
+      <c r="G264" s="6">
+        <v>1842</v>
+      </c>
+      <c r="H264" s="6">
+        <v>2418</v>
+      </c>
+      <c r="I264" s="8">
         <v>764</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="8">
         <v>61</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>3</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>84</v>
       </c>
-      <c r="M264" s="5">
-        <v>8.5109999999999992</v>
+      <c r="M264" s="6">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A265" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
